--- a/train _data.xlsx
+++ b/train _data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06733BCB-5E79-491C-A883-AD83209EFBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45339058-67B1-4911-BEAA-3B1BD4A15781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="630" windowWidth="21600" windowHeight="11370" xr2:uid="{8A265017-FF99-4324-9C41-1146295C3E9E}"/>
+    <workbookView xWindow="3150" yWindow="4230" windowWidth="21600" windowHeight="11370" xr2:uid="{8A265017-FF99-4324-9C41-1146295C3E9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Cutting speed V</t>
+  </si>
+  <si>
+    <t>Feed per tooth</t>
+  </si>
+  <si>
+    <t>Axial depth</t>
+  </si>
+  <si>
+    <t>tool life</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,26 +431,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE2244-1BA0-48CB-A1ED-E5615FC4273E}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>314</v>
-      </c>
-      <c r="B1">
-        <v>0.15</v>
-      </c>
-      <c r="C1">
-        <v>1.5</v>
-      </c>
-      <c r="E1">
-        <v>208</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -444,10 +466,10 @@
         <v>0.15</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E2">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -458,10 +480,10 @@
         <v>0.15</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -469,13 +491,13 @@
         <v>314</v>
       </c>
       <c r="B4">
-        <v>7.4999999999999997E-2</v>
+        <v>0.15</v>
       </c>
       <c r="C4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -486,10 +508,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E5">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -500,10 +522,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -511,13 +533,13 @@
         <v>314</v>
       </c>
       <c r="B7">
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -528,10 +550,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E8">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -542,24 +564,24 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>364</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>471</v>
+        <v>314</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C10">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>103</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -570,10 +592,10 @@
         <v>0.1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E11">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -584,10 +606,10 @@
         <v>0.1</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -595,13 +617,13 @@
         <v>471</v>
       </c>
       <c r="B13">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E13">
-        <v>110</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -612,10 +634,10 @@
         <v>0.05</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E14">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -626,10 +648,10 @@
         <v>0.05</v>
       </c>
       <c r="C15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,13 +659,13 @@
         <v>471</v>
       </c>
       <c r="B16">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="C16">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E16">
-        <v>101</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,10 +676,10 @@
         <v>0.01</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E17">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,24 +690,24 @@
         <v>0.01</v>
       </c>
       <c r="C18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>175</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>628</v>
+        <v>471</v>
       </c>
       <c r="B19">
-        <v>7.4999999999999997E-2</v>
+        <v>0.01</v>
       </c>
       <c r="C19">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E19">
-        <v>53.5</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,10 +718,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E20">
-        <v>64.5</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,10 +732,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>72</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -721,13 +743,13 @@
         <v>628</v>
       </c>
       <c r="B22">
-        <v>3.7499999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C22">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -738,10 +760,10 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E23">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -752,10 +774,10 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="C24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -763,13 +785,13 @@
         <v>628</v>
       </c>
       <c r="B25">
-        <v>7.4999999999999997E-3</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="C25">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E25">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -780,10 +802,10 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E26">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -794,10 +816,10 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -805,13 +827,13 @@
         <v>628</v>
       </c>
       <c r="B28">
-        <v>0.15</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C28">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E28">
-        <v>80</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -822,10 +844,10 @@
         <v>0.15</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -836,10 +858,10 @@
         <v>0.15</v>
       </c>
       <c r="C30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -847,13 +869,13 @@
         <v>628</v>
       </c>
       <c r="B31">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E31">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -864,10 +886,10 @@
         <v>0.125</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E32">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -878,10 +900,10 @@
         <v>0.125</v>
       </c>
       <c r="C33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -889,13 +911,13 @@
         <v>628</v>
       </c>
       <c r="B34">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="C34">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E34">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -906,10 +928,10 @@
         <v>0.1</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E35">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,24 +942,24 @@
         <v>0.1</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>471</v>
+        <v>628</v>
       </c>
       <c r="B37">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="C37">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E37">
-        <v>107</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -948,10 +970,10 @@
         <v>0.125</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E38">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -962,10 +984,10 @@
         <v>0.125</v>
       </c>
       <c r="C39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -973,13 +995,13 @@
         <v>471</v>
       </c>
       <c r="B40">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="C40">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E40">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -990,10 +1012,10 @@
         <v>0.15</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E41">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1004,9 +1026,23 @@
         <v>0.15</v>
       </c>
       <c r="C42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>471</v>
+      </c>
+      <c r="B43">
+        <v>0.15</v>
+      </c>
+      <c r="C43">
+        <v>0.5</v>
+      </c>
+      <c r="E43">
         <v>143</v>
       </c>
     </row>

--- a/train _data.xlsx
+++ b/train _data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45339058-67B1-4911-BEAA-3B1BD4A15781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A4CE67-EAFE-4CF8-B418-A64C3B6253D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="4230" windowWidth="21600" windowHeight="11370" xr2:uid="{8A265017-FF99-4324-9C41-1146295C3E9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A265017-FF99-4324-9C41-1146295C3E9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -99,7 +97,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE2244-1BA0-48CB-A1ED-E5615FC4273E}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E1" sqref="E1:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -442,9 +440,10 @@
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,11 +453,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>314</v>
       </c>
@@ -468,11 +467,11 @@
       <c r="C2">
         <v>1.5</v>
       </c>
-      <c r="E2">
+      <c r="D2">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>314</v>
       </c>
@@ -482,11 +481,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="D3">
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>314</v>
       </c>
@@ -496,11 +495,11 @@
       <c r="C4">
         <v>0.5</v>
       </c>
-      <c r="E4">
+      <c r="D4">
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>314</v>
       </c>
@@ -510,11 +509,11 @@
       <c r="C5">
         <v>1.5</v>
       </c>
-      <c r="E5">
+      <c r="D5">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>314</v>
       </c>
@@ -524,11 +523,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="D6">
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>314</v>
       </c>
@@ -538,11 +537,11 @@
       <c r="C7">
         <v>0.5</v>
       </c>
-      <c r="E7">
+      <c r="D7">
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>314</v>
       </c>
@@ -552,11 +551,11 @@
       <c r="C8">
         <v>1.5</v>
       </c>
-      <c r="E8">
+      <c r="D8">
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>314</v>
       </c>
@@ -566,11 +565,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="D9">
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>314</v>
       </c>
@@ -580,11 +579,11 @@
       <c r="C10">
         <v>0.5</v>
       </c>
-      <c r="E10">
+      <c r="D10">
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>471</v>
       </c>
@@ -594,11 +593,11 @@
       <c r="C11">
         <v>1.5</v>
       </c>
-      <c r="E11">
+      <c r="D11">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>471</v>
       </c>
@@ -608,11 +607,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="D12">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>471</v>
       </c>
@@ -622,11 +621,11 @@
       <c r="C13">
         <v>0.5</v>
       </c>
-      <c r="E13">
+      <c r="D13">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>471</v>
       </c>
@@ -636,11 +635,11 @@
       <c r="C14">
         <v>1.5</v>
       </c>
-      <c r="E14">
+      <c r="D14">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>471</v>
       </c>
@@ -650,11 +649,11 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="D15">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>471</v>
       </c>
@@ -664,11 +663,11 @@
       <c r="C16">
         <v>0.5</v>
       </c>
-      <c r="E16">
+      <c r="D16">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>471</v>
       </c>
@@ -678,11 +677,11 @@
       <c r="C17">
         <v>1.5</v>
       </c>
-      <c r="E17">
+      <c r="D17">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>471</v>
       </c>
@@ -692,11 +691,11 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="D18">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>471</v>
       </c>
@@ -706,11 +705,11 @@
       <c r="C19">
         <v>0.5</v>
       </c>
-      <c r="E19">
+      <c r="D19">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>628</v>
       </c>
@@ -720,11 +719,11 @@
       <c r="C20">
         <v>1.5</v>
       </c>
-      <c r="E20">
+      <c r="D20">
         <v>53.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>628</v>
       </c>
@@ -734,11 +733,11 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="D21">
         <v>64.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>628</v>
       </c>
@@ -748,11 +747,11 @@
       <c r="C22">
         <v>0.5</v>
       </c>
-      <c r="E22">
+      <c r="D22">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>628</v>
       </c>
@@ -762,11 +761,11 @@
       <c r="C23">
         <v>1.5</v>
       </c>
-      <c r="E23">
+      <c r="D23">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>628</v>
       </c>
@@ -776,11 +775,11 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="D24">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>628</v>
       </c>
@@ -790,11 +789,11 @@
       <c r="C25">
         <v>0.5</v>
       </c>
-      <c r="E25">
+      <c r="D25">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>628</v>
       </c>
@@ -804,11 +803,11 @@
       <c r="C26">
         <v>1.5</v>
       </c>
-      <c r="E26">
+      <c r="D26">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>628</v>
       </c>
@@ -818,11 +817,11 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="D27">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>628</v>
       </c>
@@ -832,11 +831,11 @@
       <c r="C28">
         <v>0.5</v>
       </c>
-      <c r="E28">
+      <c r="D28">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>628</v>
       </c>
@@ -844,13 +843,13 @@
         <v>0.15</v>
       </c>
       <c r="C29">
-        <v>1.5</v>
-      </c>
-      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>628</v>
       </c>
@@ -858,13 +857,13 @@
         <v>0.15</v>
       </c>
       <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="E30">
+        <v>1.5</v>
+      </c>
+      <c r="D30">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>628</v>
       </c>
@@ -874,11 +873,11 @@
       <c r="C31">
         <v>0.5</v>
       </c>
-      <c r="E31">
+      <c r="D31">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>628</v>
       </c>
@@ -886,13 +885,13 @@
         <v>0.125</v>
       </c>
       <c r="C32">
-        <v>1.5</v>
-      </c>
-      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>628</v>
       </c>
@@ -900,13 +899,13 @@
         <v>0.125</v>
       </c>
       <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="E33">
+        <v>1.5</v>
+      </c>
+      <c r="D33">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>628</v>
       </c>
@@ -916,11 +915,11 @@
       <c r="C34">
         <v>0.5</v>
       </c>
-      <c r="E34">
+      <c r="D34">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>628</v>
       </c>
@@ -930,11 +929,11 @@
       <c r="C35">
         <v>1.5</v>
       </c>
-      <c r="E35">
+      <c r="D35">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>628</v>
       </c>
@@ -944,11 +943,11 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36">
+      <c r="D36">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>628</v>
       </c>
@@ -958,11 +957,11 @@
       <c r="C37">
         <v>0.5</v>
       </c>
-      <c r="E37">
+      <c r="D37">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>471</v>
       </c>
@@ -972,11 +971,11 @@
       <c r="C38">
         <v>1.5</v>
       </c>
-      <c r="E38">
+      <c r="D38">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>471</v>
       </c>
@@ -986,11 +985,11 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="E39">
+      <c r="D39">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>471</v>
       </c>
@@ -1000,11 +999,11 @@
       <c r="C40">
         <v>0.5</v>
       </c>
-      <c r="E40">
+      <c r="D40">
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>471</v>
       </c>
@@ -1014,11 +1013,11 @@
       <c r="C41">
         <v>1.5</v>
       </c>
-      <c r="E41">
+      <c r="D41">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>471</v>
       </c>
@@ -1028,11 +1027,11 @@
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="E42">
+      <c r="D42">
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>471</v>
       </c>
@@ -1042,7 +1041,7 @@
       <c r="C43">
         <v>0.5</v>
       </c>
-      <c r="E43">
+      <c r="D43">
         <v>143</v>
       </c>
     </row>
